--- a/lda_common_topics.xlsx
+++ b/lda_common_topics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noelwarford/Documents/School/UMD/Classes/Fall 2019/Computational Linguistics I/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noelwarford/Documents/School/UMD/Classes/Fall 2019/Computational Linguistics I/Project/complingcompbio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64EEB8B-86AE-E143-80DE-ACC796FB10CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274A9DED-6009-604B-BFF6-6BE733910270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500" xr2:uid="{59A23577-D9B9-6641-B86E-1E875BBEEF49}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>has_POLE</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>MSI_medium</t>
+  </si>
+  <si>
+    <t>MSI_high</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,7 +659,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D21" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
